--- a/biology/Zoologie/Iaspis_castitas/Iaspis_castitas.xlsx
+++ b/biology/Zoologie/Iaspis_castitas/Iaspis_castitas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis castitas est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis castitas a été décrit par Herbert Druce en 1907 sous le nom Thecla talayra var. castita.
-Synonymes : Iaspis minuta Austin &amp; Johnson, 1996; Iaspis ambiguanota Austin &amp; Johnson, 1996; Iaspis fumosa Austin &amp; Johnson, 1996;; Iaspis sinenota Austin &amp; Johnson, 1996[1].
+Synonymes : Iaspis minuta Austin &amp; Johnson, 1996; Iaspis ambiguanota Austin &amp; Johnson, 1996; Iaspis fumosa Austin &amp; Johnson, 1996;; Iaspis sinenota Austin &amp; Johnson, 1996.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis castitas est un petit papillon aux antennes et aux pattes annelées de blanc et de noir, avec deux fines queues, une longue et une très longue à chaque aile postérieure.
 Le dessus du mâle est bleu métallisé bordé de marron.
@@ -573,12 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iaspis castitas est présent au Brésil et en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -608,10 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iaspis castitas est présent au Brésil et en Guyane[1],[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Iaspis castitas, sur Wikimedia CommonsIaspis castitas, sur Wikispecies
 </t>
